--- a/studentdata.xlsx
+++ b/studentdata.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinay\Desktop\tnp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B6CDAD-A268-41F1-A1BE-6E31FCED8598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{196256DA-9355-4494-A9BF-D14769F08D2D}"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>rollNumber</t>
   </si>
@@ -50,9 +31,15 @@
     <t>lastName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>alternateEmail</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>alternatePhone</t>
   </si>
   <si>
@@ -74,6 +61,12 @@
     <t>pictRegistrationId</t>
   </si>
   <si>
+    <t>prn</t>
+  </si>
+  <si>
+    <t>sscPercentage</t>
+  </si>
+  <si>
     <t>sscBoard</t>
   </si>
   <si>
@@ -86,6 +79,18 @@
     <t>reasonOfGapSsc</t>
   </si>
   <si>
+    <t>isHsc</t>
+  </si>
+  <si>
+    <t>isDiploma</t>
+  </si>
+  <si>
+    <t>isBoth</t>
+  </si>
+  <si>
+    <t>hscPercentage</t>
+  </si>
+  <si>
     <t>hscBoard</t>
   </si>
   <si>
@@ -113,6 +118,9 @@
     <t>reasonForGapDiploma</t>
   </si>
   <si>
+    <t>yearOfStartingCollege</t>
+  </si>
+  <si>
     <t>firstYearFirstSemCgpa</t>
   </si>
   <si>
@@ -134,18 +142,42 @@
     <t>passiveBacklog</t>
   </si>
   <si>
+    <t>yearDrop</t>
+  </si>
+  <si>
     <t>aadharCard</t>
   </si>
   <si>
     <t>panCard</t>
   </si>
   <si>
+    <t>passportCard</t>
+  </si>
+  <si>
     <t>citizenship</t>
   </si>
   <si>
+    <t>planningForHigherEducation</t>
+  </si>
+  <si>
     <t>appearedForAmcat</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Kedar</t>
+  </si>
+  <si>
+    <t>Kashinath</t>
+  </si>
+  <si>
+    <t>Koshti</t>
+  </si>
+  <si>
+    <t>officialkedark1@gmail.com</t>
+  </si>
+  <si>
     <t>rohit2@gmail.com</t>
   </si>
   <si>
@@ -155,9 +187,18 @@
     <t>pune</t>
   </si>
   <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
     <t>i2k20104532</t>
   </si>
   <si>
+    <t>72134579L</t>
+  </si>
+  <si>
     <t>state board</t>
   </si>
   <si>
@@ -176,22 +217,49 @@
     <t>yes</t>
   </si>
   <si>
+    <t>Sangmenshwar</t>
+  </si>
+  <si>
+    <t>Chandrashekhar</t>
+  </si>
+  <si>
+    <t>Mahajan</t>
+  </si>
+  <si>
+    <t>mahajansangmeshwar04@gmail.com</t>
+  </si>
+  <si>
     <t>rohit2@yahoo.com</t>
   </si>
   <si>
+    <t>Latore</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>i2k20124531</t>
+  </si>
+  <si>
     <t>72144589L</t>
   </si>
   <si>
-    <t>72134579L</t>
-  </si>
-  <si>
-    <t>i2k20124531</t>
-  </si>
-  <si>
     <t>ADPC4895BD</t>
   </si>
   <si>
-    <t>password</t>
+    <t>Vinayak</t>
+  </si>
+  <si>
+    <t>Sidram</t>
+  </si>
+  <si>
+    <t>Jamadar</t>
+  </si>
+  <si>
+    <t>vinayaksjamadar1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Solapur</t>
   </si>
   <si>
     <t>i2k20124731</t>
@@ -200,103 +268,80 @@
     <t>72144587L</t>
   </si>
   <si>
+    <t>675854682576</t>
+  </si>
+  <si>
     <t>ADPC4894BD</t>
   </si>
   <si>
-    <t>prn</t>
-  </si>
-  <si>
-    <t>Sangmenshwar</t>
-  </si>
-  <si>
-    <t>Mahajan</t>
-  </si>
-  <si>
-    <t>Vinayak</t>
-  </si>
-  <si>
-    <t>Sidram</t>
-  </si>
-  <si>
-    <t>Jamadar</t>
-  </si>
-  <si>
-    <t>vinayaksjamadar1234@gmail.com</t>
-  </si>
-  <si>
-    <t>mahajansangmeshwar04@gmail.com</t>
-  </si>
-  <si>
-    <t>officialkedark1@gmail.com</t>
-  </si>
-  <si>
-    <t>Solapur</t>
-  </si>
-  <si>
-    <t>Latore</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>sscPercentage</t>
-  </si>
-  <si>
-    <t>hscPercentage</t>
-  </si>
-  <si>
-    <t>isHsc</t>
-  </si>
-  <si>
-    <t>isDiploma</t>
-  </si>
-  <si>
-    <t>isBoth</t>
-  </si>
-  <si>
-    <t>yearDrop</t>
-  </si>
-  <si>
-    <t>passportCard</t>
-  </si>
-  <si>
-    <t>planningForHigherEducation</t>
-  </si>
-  <si>
-    <t>yearOfStartingCollege</t>
-  </si>
-  <si>
-    <t>Kedar</t>
-  </si>
-  <si>
-    <t>Koshti</t>
-  </si>
-  <si>
-    <t>Kashinath</t>
-  </si>
-  <si>
-    <t>Chandrashekhar</t>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Jayesh</t>
+  </si>
+  <si>
+    <t>Somani</t>
+  </si>
+  <si>
+    <t>gauravsomani52750@gmail.com</t>
+  </si>
+  <si>
+    <t>i2k20106653</t>
+  </si>
+  <si>
+    <t>73134579L</t>
+  </si>
+  <si>
+    <t>675000632476</t>
+  </si>
+  <si>
+    <t>gaurav123</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>priyagf@gmail.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>entc</t>
+  </si>
+  <si>
+    <t>i2k20124999</t>
+  </si>
+  <si>
+    <t>63765735L</t>
+  </si>
+  <si>
+    <t>675854632996</t>
+  </si>
+  <si>
+    <t>ADSDADADA</t>
+  </si>
+  <si>
+    <t>priya123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,19 +349,349 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -324,34 +699,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,7 +1063,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -433,26 +1096,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -485,23 +1131,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,189 +1272,184 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F084823E-AFEC-492B-AE21-D6E01978C34A}">
-  <dimension ref="A1:AX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1090909090909" customWidth="1"/>
+    <col min="2" max="2" width="9.44545454545455" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.3363636363636" customWidth="1"/>
+    <col min="15" max="15" width="17.5545454545455" customWidth="1"/>
+    <col min="16" max="16" width="19.4454545454545" customWidth="1"/>
     <col min="44" max="44" width="21" customWidth="1"/>
-    <col min="45" max="45" width="22.21875" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.2181818181818" customWidth="1"/>
+    <col min="50" max="50" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="43.5" spans="1:50">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>52</v>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50">
       <c r="A2">
         <v>33333</v>
       </c>
@@ -833,19 +1457,19 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H2">
         <v>8459135174</v>
@@ -853,32 +1477,32 @@
       <c r="I2">
         <v>8765432109</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>38694</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="S2">
         <v>2018</v>
@@ -887,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="V2" t="b">
         <v>1</v>
@@ -902,7 +1526,7 @@
         <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA2">
         <v>2020</v>
@@ -911,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -926,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI2">
         <v>2020</v>
@@ -935,10 +1559,10 @@
         <v>9.9</v>
       </c>
       <c r="AK2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AL2">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="AM2">
         <v>8</v>
@@ -953,31 +1577,31 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AR2">
         <v>675854632476</v>
       </c>
       <c r="AS2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AT2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AU2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AV2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AW2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AX2">
         <v>9579025149</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50">
       <c r="A3">
         <v>33332</v>
       </c>
@@ -985,19 +1609,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H3">
         <v>8010965429</v>
@@ -1005,32 +1629,32 @@
       <c r="I3">
         <v>1234567890</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>38694</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="Q3">
         <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="S3">
         <v>2018</v>
@@ -1039,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="V3" t="b">
         <v>1</v>
@@ -1054,7 +1678,7 @@
         <v>89</v>
       </c>
       <c r="Z3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA3">
         <v>2020</v>
@@ -1063,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1078,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI3">
         <v>2020</v>
@@ -1087,10 +1711,10 @@
         <v>9.9</v>
       </c>
       <c r="AK3">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AL3">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="AM3">
         <v>8</v>
@@ -1105,32 +1729,32 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AR3">
         <v>675854632576</v>
       </c>
       <c r="AS3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="AT3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AU3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AW3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AX3">
         <f t="shared" ref="AX3:AX4" si="0">H3</f>
         <v>8010965429</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50">
       <c r="A4">
         <v>34332</v>
       </c>
@@ -1138,19 +1762,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H4">
         <v>7020563855</v>
@@ -1158,32 +1782,32 @@
       <c r="I4">
         <v>1234567890</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>38694</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="Q4">
         <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="S4">
         <v>2018</v>
@@ -1192,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="V4" t="b">
         <v>1</v>
@@ -1204,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AA4">
         <v>2020</v>
@@ -1216,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1231,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI4">
         <v>2020</v>
@@ -1240,10 +1864,10 @@
         <v>9.9</v>
       </c>
       <c r="AK4">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AL4">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="AM4">
         <v>8</v>
@@ -1258,40 +1882,349 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR4">
-        <v>675854682576</v>
+        <v>63</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="AS4" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AT4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AU4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AV4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AW4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AX4">
         <f t="shared" si="0"/>
         <v>7020563855</v>
       </c>
     </row>
+    <row r="5" spans="1:50">
+      <c r="A5" s="3">
+        <v>44444</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8767686456</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8765432109</v>
+      </c>
+      <c r="J5" s="7">
+        <v>38694</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>50</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>9.8</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" s="3">
+        <v>33339</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8050965429</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="J6" s="7">
+        <v>38694</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>87</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2018</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>9.8</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{AD4B157D-8929-44B2-B217-6192DBD56B64}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{C488755F-D35D-4D98-AB9A-DCFC5EF2D3B3}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{630D5D38-9AF4-47A6-A861-CCDFAAC37B69}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{BC582E67-90AA-4F55-83A1-A862FFEEB8BD}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{8499D49A-7DB2-4602-A24C-87E3A1D0CAFB}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{846730D8-3B86-4A9C-B350-50928F57C5DA}"/>
+    <hyperlink ref="F2" r:id="rId1" display="officialkedark1@gmail.com"/>
+    <hyperlink ref="G2" r:id="rId2" display="rohit2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId3" display="mahajansangmeshwar04@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId4" display="rohit2@yahoo.com"/>
+    <hyperlink ref="F4" r:id="rId5" display="vinayaksjamadar1234@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId4" display="rohit2@yahoo.com"/>
+    <hyperlink ref="F5" r:id="rId6" display="gauravsomani52750@gmail.com" tooltip="mailto:gauravsomani52750@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId2" display="rohit2@gmail.com"/>
+    <hyperlink ref="F6" r:id="rId7" display="priyagf@gmail.com" tooltip="mailto:priyagf@gmail.com"/>
+    <hyperlink ref="G6" r:id="rId4" display="rohit2@yahoo.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>